--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe\Desktop\College\388\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98978A-932B-41B8-8A08-40A0F8BAB21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB66A0-DE4D-4D93-9A10-13D11F3CDBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{43E711D5-ED55-4143-9DD4-ECD6D71A55FF}"/>
   </bookViews>
@@ -228,15 +228,9 @@
     <t>C12676</t>
   </si>
   <si>
-    <t>Digikey</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/microchip-technology/ATMEGA328PB-AUR/5638753</t>
   </si>
   <si>
-    <t>out of stock</t>
-  </si>
-  <si>
     <t>C34945</t>
   </si>
   <si>
@@ -322,13 +316,22 @@
   </si>
   <si>
     <t>US$ 0.008032</t>
+  </si>
+  <si>
+    <t>Digikey price 1</t>
+  </si>
+  <si>
+    <t>Digikey link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +365,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,12 +434,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -476,8 +498,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{98258A0B-8334-4D24-8F0B-99B07AD33556}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="22" unboundColumnsRight="7">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="23" unboundColumnsRight="8">
+    <queryTableFields count="14">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="3" name="Device" tableColumnId="3"/>
@@ -491,6 +513,7 @@
       <queryTableField id="19" dataBound="0" tableColumnId="19"/>
       <queryTableField id="20" dataBound="0" tableColumnId="20"/>
       <queryTableField id="21" dataBound="0" tableColumnId="21"/>
+      <queryTableField id="22" dataBound="0" tableColumnId="7"/>
     </queryTableFields>
     <queryTableDeletedFields count="2">
       <deletedField name="Column1"/>
@@ -501,22 +524,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC5CD01F-B181-4736-9523-FB5AB4BFFE04}" name="untitled" displayName="untitled" ref="A1:M13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M13" xr:uid="{20674918-FF13-4E2A-A905-F5D97C9026E5}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC5CD01F-B181-4736-9523-FB5AB4BFFE04}" name="untitled" displayName="untitled" ref="A1:N13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N13" xr:uid="{20674918-FF13-4E2A-A905-F5D97C9026E5}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F58F1614-526C-4109-9597-41320BBCDD1A}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{250B389F-F9B2-422A-8134-DFE3EA35289B}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{06D54745-39AF-4F6A-9577-473F2F29684C}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{70840CA2-F8C1-4316-B0E7-C6A1869E0CE5}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{173705A7-89FE-41DE-B5A4-FD3149724492}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D3C88FE5-B274-4FB2-A203-F128F088C206}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{3CB837BD-DF91-4AFE-B7B6-9A4110BC2CD5}" uniqueName="14" name="LCS PRICE 1" queryTableFieldId="14" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{7D7EA142-7E1D-43A8-8258-704AF2FA3B83}" uniqueName="15" name="LCSCS Price 10" queryTableFieldId="15" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{019A0C6E-9501-4E7F-84F6-241ADEC0B020}" uniqueName="16" name="LCSC price 100" queryTableFieldId="16" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{BCC72E1F-8F50-4C4B-8C4E-623BB32158A3}" uniqueName="18" name="LCSC Price 1000" queryTableFieldId="18" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{F4FD6569-AE51-434A-AEF3-6D1F04C02E39}" uniqueName="19" name="LCSC PN" queryTableFieldId="19" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{0945AF6F-CA81-466E-9220-9DB60CE07E6D}" uniqueName="20" name="LCSC Link" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{748451F5-20CD-4BC6-8448-86608ACC1182}" uniqueName="21" name="Digikey" queryTableFieldId="21" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{250B389F-F9B2-422A-8134-DFE3EA35289B}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{06D54745-39AF-4F6A-9577-473F2F29684C}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{70840CA2-F8C1-4316-B0E7-C6A1869E0CE5}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{173705A7-89FE-41DE-B5A4-FD3149724492}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D3C88FE5-B274-4FB2-A203-F128F088C206}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{3CB837BD-DF91-4AFE-B7B6-9A4110BC2CD5}" uniqueName="14" name="LCS PRICE 1" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{7D7EA142-7E1D-43A8-8258-704AF2FA3B83}" uniqueName="15" name="LCSCS Price 10" queryTableFieldId="15" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{019A0C6E-9501-4E7F-84F6-241ADEC0B020}" uniqueName="16" name="LCSC price 100" queryTableFieldId="16" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{BCC72E1F-8F50-4C4B-8C4E-623BB32158A3}" uniqueName="18" name="LCSC Price 1000" queryTableFieldId="18" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{F4FD6569-AE51-434A-AEF3-6D1F04C02E39}" uniqueName="19" name="LCSC PN" queryTableFieldId="19" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{0945AF6F-CA81-466E-9220-9DB60CE07E6D}" uniqueName="20" name="LCSC Link" queryTableFieldId="20" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{748451F5-20CD-4BC6-8448-86608ACC1182}" uniqueName="21" name="Digikey price 1" queryTableFieldId="21" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{35943C3F-7690-4E21-8764-8DB28027C436}" uniqueName="7" name="Digikey link" queryTableFieldId="22" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B04969-3DE6-4422-A288-CAEED836FABA}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +863,7 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +901,13 @@
         <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -906,8 +933,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -929,10 +957,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>50</v>
@@ -941,8 +969,9 @@
         <v>51</v>
       </c>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -953,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -963,23 +992,24 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1001,10 +1031,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>57</v>
@@ -1013,13 +1043,14 @@
         <v>56</v>
       </c>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1036,10 +1067,10 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>52</v>
@@ -1048,8 +1079,9 @@
         <v>53</v>
       </c>
       <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1070,13 +1102,13 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>59</v>
@@ -1085,8 +1117,9 @@
         <v>58</v>
       </c>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1111,11 +1144,14 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="6" t="s">
-        <v>64</v>
+      <c r="M8" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1139,14 +1175,15 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>61</v>
+      <c r="L9" s="1"/>
+      <c r="M9" s="9">
+        <v>1.42</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1170,12 +1207,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1196,21 +1234,22 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1232,10 +1271,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>54</v>
@@ -1244,13 +1283,14 @@
         <v>55</v>
       </c>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1259,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>14</v>
@@ -1267,16 +1307,17 @@
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1287,14 +1328,13 @@
     <hyperlink ref="L5" r:id="rId4" xr:uid="{A45A9C79-1471-492B-870E-93763221ED40}"/>
     <hyperlink ref="L6" r:id="rId5" xr:uid="{4067FFFD-AB83-447E-B9FE-E2170097817D}"/>
     <hyperlink ref="L7" r:id="rId6" xr:uid="{0A6915EB-F996-4B99-B7EF-947FCB5F1C81}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{7F72AB80-6359-4E85-9F4D-31CB46E85DF7}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{64F1DBBC-E6A1-435D-8FD6-C2B945838CE9}"/>
-    <hyperlink ref="L4" r:id="rId9" xr:uid="{F23EFCC7-A053-499F-8E0C-40BFA51A262C}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{F23EFCC7-A053-499F-8E0C-40BFA51A262C}"/>
+    <hyperlink ref="N8" r:id="rId8" xr:uid="{5EE380E8-7711-4D9C-A577-8F5567A0799C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
